--- a/templates/cutting_machine_data.xlsx
+++ b/templates/cutting_machine_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="220">
   <si>
     <t>Machine</t>
   </si>
@@ -126,6 +126,483 @@
   </si>
   <si>
     <t>Biting Time (Minutes)</t>
+  </si>
+  <si>
+    <t>95.3</t>
+  </si>
+  <si>
+    <t>2210006UPL2</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:01:12 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:26:54 AM</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>administrator</t>
+  </si>
+  <si>
+    <t>c_Shift</t>
+  </si>
+  <si>
+    <t>2210009HEB01</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:31:48 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 7:10:39 AM</t>
+  </si>
+  <si>
+    <t>2210009HEB02</t>
+  </si>
+  <si>
+    <t>3/10/2022, 7:13:12 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 7:53:52 AM</t>
+  </si>
+  <si>
+    <t>2210032US-BKL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:02:08 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:21:51 AM</t>
+  </si>
+  <si>
+    <t>a_Shift</t>
+  </si>
+  <si>
+    <t>2210009HEB03</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:25:32 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:00:12 AM</t>
+  </si>
+  <si>
+    <t>2210018HEB04</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:06:49 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:29:30 AM</t>
+  </si>
+  <si>
+    <t>2210018HEB04-BU-1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:32:08 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:36:30 AM</t>
+  </si>
+  <si>
+    <t>2210011US-CUPLI1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:39:32 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:41:10 AM</t>
+  </si>
+  <si>
+    <t>2210076US-SLING1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:51:34 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:51:56 AM</t>
+  </si>
+  <si>
+    <t>2210004HB-BK-CT1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 10:40:45 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 10:54:06 AM</t>
+  </si>
+  <si>
+    <t>2210023US-CPTOP1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 10:54:39 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 11:04:44 AM</t>
+  </si>
+  <si>
+    <t>2210076US-BK-CUP-CTR-CTRL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 12:00:59 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 12:48:31 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:05:03 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:09:18 PM</t>
+  </si>
+  <si>
+    <t>2210034US-BKPNL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:09:51 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:23:47 PM</t>
+  </si>
+  <si>
+    <t>2210020HB-CTRL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:25:05 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:28:40 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:32:45 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:34:44 PM</t>
+  </si>
+  <si>
+    <t>2210020HB-CTR-FR-BK1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:40:01 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 1:56:19 PM</t>
+  </si>
+  <si>
+    <t>2210011US-BK-CTR-CUP1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:42:11 AM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 2:00:50 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:52:24 AM</t>
+  </si>
+  <si>
+    <t>2210023US-BACK-SLSIC1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 11:13:28 AM</t>
+  </si>
+  <si>
+    <t>2210076US-BK-CUP-CTR-CTRL2</t>
+  </si>
+  <si>
+    <t>3/10/2022, 12:48:51 PM</t>
+  </si>
+  <si>
+    <t>2210008UPL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 2:11:33 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 2:31:37 PM</t>
+  </si>
+  <si>
+    <t>2210030US-BK-MCUP-GOP-BKL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 2:41:18 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 2:54:34 PM</t>
+  </si>
+  <si>
+    <t>2210034US-MC-BK1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 2:56:09 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:02:53 PM</t>
+  </si>
+  <si>
+    <t>2210033HEB01-BU-1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:11:48 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:13:12 PM</t>
+  </si>
+  <si>
+    <t>2210033HEB01</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:15:07 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:25:58 PM</t>
+  </si>
+  <si>
+    <t>2210008UPO04</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:30:26 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:43:45 PM</t>
+  </si>
+  <si>
+    <t>2210008UPO04-BU-1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:47:59 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 3:57:22 PM</t>
+  </si>
+  <si>
+    <t>2210008UPO05</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:01:23 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:10:59 PM</t>
+  </si>
+  <si>
+    <t>b_Shift</t>
+  </si>
+  <si>
+    <t>2210008UPO01</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:14:35 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:25:08 PM</t>
+  </si>
+  <si>
+    <t>2210008UPO01-BU-1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:27:03 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:31:19 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:32:09 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:41:08 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:42:47 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:47:33 PM</t>
+  </si>
+  <si>
+    <t>2210008UPO03</t>
+  </si>
+  <si>
+    <t>3/10/2022, 4:48:11 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 5:00:31 PM</t>
+  </si>
+  <si>
+    <t>2210054US-BKL2</t>
+  </si>
+  <si>
+    <t>3/10/2022, 5:15:36 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:04:54 PM</t>
+  </si>
+  <si>
+    <t>2210054US-BKL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:09:36 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:53:59 PM</t>
+  </si>
+  <si>
+    <t>2210077US-SLING1ddd</t>
+  </si>
+  <si>
+    <t>3/10/2022, 6:56:28 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 7:46:43 PM</t>
+  </si>
+  <si>
+    <t>2210077US-SLING2dd</t>
+  </si>
+  <si>
+    <t>3/10/2022, 7:47:15 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:08:35 PM</t>
+  </si>
+  <si>
+    <t>2210077US-BK-CUP-CTR-CTRL3</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:09:21 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:37:31 PM</t>
+  </si>
+  <si>
+    <t>2210079US-SLING1d</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:38:18 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:42:31 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 8:43:44 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:19:35 PM</t>
+  </si>
+  <si>
+    <t>2210052US-MC1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:22:31 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:34:20 PM</t>
+  </si>
+  <si>
+    <t>2210052US-MC2</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:35:44 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 9:53:47 PM</t>
+  </si>
+  <si>
+    <t>2210035HB-CTRL-CUPL-BKL1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 10:09:24 PM</t>
+  </si>
+  <si>
+    <t>3/10/2022, 11:17:34 PM</t>
+  </si>
+  <si>
+    <t>2210035HB-CTRA-TCUPA1</t>
+  </si>
+  <si>
+    <t>3/10/2022, 11:24:13 PM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 12:10:58 AM</t>
+  </si>
+  <si>
+    <t>2210034HEB03</t>
+  </si>
+  <si>
+    <t>3/11/2022, 12:18:21 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 1:24:22 AM</t>
+  </si>
+  <si>
+    <t>2210041HEB07</t>
+  </si>
+  <si>
+    <t>3/11/2022, 1:33:57 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 2:10:37 AM</t>
+  </si>
+  <si>
+    <t>2210036HB-CUP-TCUP-BK-CTR1</t>
+  </si>
+  <si>
+    <t>3/11/2022, 2:17:01 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 2:49:34 AM</t>
+  </si>
+  <si>
+    <t>2210036HB-CTRA-TCUPA1</t>
+  </si>
+  <si>
+    <t>3/11/2022, 2:58:20 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 3:15:53 AM</t>
+  </si>
+  <si>
+    <t>2210040HB-CTRA-TCUPA1</t>
+  </si>
+  <si>
+    <t>3/11/2022, 3:21:03 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 3:36:58 AM</t>
+  </si>
+  <si>
+    <t>2210080US-SLING1ddddddddddddd</t>
+  </si>
+  <si>
+    <t>3/11/2022, 3:45:21 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 3:57:06 AM</t>
+  </si>
+  <si>
+    <t>2210080US-SLING2ddddddddddddddd</t>
+  </si>
+  <si>
+    <t>3/11/2022, 4:02:02 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 4:18:41 AM</t>
+  </si>
+  <si>
+    <t>2210040HB-CTRL-CUPL-BKL1</t>
+  </si>
+  <si>
+    <t>3/11/2022, 4:28:02 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 5:02:56 AM</t>
+  </si>
+  <si>
+    <t>2210041HEB03</t>
+  </si>
+  <si>
+    <t>3/11/2022, 5:09:20 AM</t>
+  </si>
+  <si>
+    <t>3/11/2022, 6:30:46 AM</t>
   </si>
   <si>
     <t>Cutfile Name</t>
@@ -571,7 +1048,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AL55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
@@ -695,6 +1172,6108 @@
         <v>37</v>
       </c>
     </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2">
+        <v>24.5422</v>
+      </c>
+      <c r="F2">
+        <v>1.14779</v>
+      </c>
+      <c r="G2">
+        <v>17.2492</v>
+      </c>
+      <c r="H2">
+        <v>180</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2.90866</v>
+      </c>
+      <c r="K2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>108.828</v>
+      </c>
+      <c r="O2">
+        <v>25.6967</v>
+      </c>
+      <c r="P2">
+        <v>70.5849</v>
+      </c>
+      <c r="Q2">
+        <v>99.6</v>
+      </c>
+      <c r="R2">
+        <v>99.3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2">
+        <v>1.45028</v>
+      </c>
+      <c r="U2">
+        <v>5.21248</v>
+      </c>
+      <c r="V2">
+        <v>1.75</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>273.049</v>
+      </c>
+      <c r="AB2">
+        <v>182</v>
+      </c>
+      <c r="AC2">
+        <v>108.828</v>
+      </c>
+      <c r="AD2">
+        <v>15.6915</v>
+      </c>
+      <c r="AE2">
+        <v>1.85341</v>
+      </c>
+      <c r="AF2">
+        <v>849.997</v>
+      </c>
+      <c r="AH2">
+        <v>78.8682</v>
+      </c>
+      <c r="AI2">
+        <v>1.31983</v>
+      </c>
+      <c r="AJ2">
+        <v>1.49555</v>
+      </c>
+      <c r="AK2">
+        <v>1</v>
+      </c>
+      <c r="AL2">
+        <v>0.116951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>31.8084</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>4.90819</v>
+      </c>
+      <c r="H3">
+        <v>224</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>3.9608</v>
+      </c>
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>99.6</v>
+      </c>
+      <c r="R3">
+        <v>99</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3">
+        <v>1.76022</v>
+      </c>
+      <c r="U3">
+        <v>3.9608</v>
+      </c>
+      <c r="V3">
+        <v>1.75</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>227</v>
+      </c>
+      <c r="AC3">
+        <v>148.371</v>
+      </c>
+      <c r="AD3">
+        <v>20.4232</v>
+      </c>
+      <c r="AE3">
+        <v>2.32049</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>117.562</v>
+      </c>
+      <c r="AI3">
+        <v>1.68616</v>
+      </c>
+      <c r="AJ3">
+        <v>8783.27</v>
+      </c>
+      <c r="AK3">
+        <v>299</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>33.3012</v>
+      </c>
+      <c r="F4">
+        <v>7.37033</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>224</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>3.9608</v>
+      </c>
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4">
+        <v>148.352</v>
+      </c>
+      <c r="O4">
+        <v>40.6781</v>
+      </c>
+      <c r="P4">
+        <v>60.7829</v>
+      </c>
+      <c r="Q4">
+        <v>99.6</v>
+      </c>
+      <c r="R4">
+        <v>99</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4">
+        <v>1.76022</v>
+      </c>
+      <c r="U4">
+        <v>3.9608</v>
+      </c>
+      <c r="V4">
+        <v>1.75</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>269.597</v>
+      </c>
+      <c r="AB4">
+        <v>227</v>
+      </c>
+      <c r="AC4">
+        <v>148.352</v>
+      </c>
+      <c r="AD4">
+        <v>21.6643</v>
+      </c>
+      <c r="AE4">
+        <v>2.33275</v>
+      </c>
+      <c r="AF4">
+        <v>699.998</v>
+      </c>
+      <c r="AH4">
+        <v>124.034</v>
+      </c>
+      <c r="AI4">
+        <v>1.45436</v>
+      </c>
+      <c r="AJ4">
+        <v>2.54635</v>
+      </c>
+      <c r="AK4">
+        <v>2</v>
+      </c>
+      <c r="AL4">
+        <v>0.328793</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5">
+        <v>19.1552</v>
+      </c>
+      <c r="F5">
+        <v>0.562766</v>
+      </c>
+      <c r="G5">
+        <v>8.26588</v>
+      </c>
+      <c r="H5">
+        <v>110</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2.22769</v>
+      </c>
+      <c r="K5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>86.6385</v>
+      </c>
+      <c r="O5">
+        <v>19.7202</v>
+      </c>
+      <c r="P5">
+        <v>73.2231</v>
+      </c>
+      <c r="Q5">
+        <v>100</v>
+      </c>
+      <c r="R5">
+        <v>100</v>
+      </c>
+      <c r="S5" t="s">
+        <v>54</v>
+      </c>
+      <c r="T5">
+        <v>1.651</v>
+      </c>
+      <c r="U5">
+        <v>2.22769</v>
+      </c>
+      <c r="V5">
+        <v>1.75</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>253.862</v>
+      </c>
+      <c r="AB5">
+        <v>112</v>
+      </c>
+      <c r="AC5">
+        <v>86.6385</v>
+      </c>
+      <c r="AD5">
+        <v>13.4363</v>
+      </c>
+      <c r="AE5">
+        <v>1.1553</v>
+      </c>
+      <c r="AF5">
+        <v>699.998</v>
+      </c>
+      <c r="AH5">
+        <v>56.1438</v>
+      </c>
+      <c r="AI5">
+        <v>0.725624</v>
+      </c>
+      <c r="AJ5">
+        <v>1.21917</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>0.158903</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6">
+        <v>32.5787</v>
+      </c>
+      <c r="F6">
+        <v>2.01958</v>
+      </c>
+      <c r="G6">
+        <v>3.67753</v>
+      </c>
+      <c r="H6">
+        <v>224</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>3.9608</v>
+      </c>
+      <c r="K6" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6">
+        <v>148.364</v>
+      </c>
+      <c r="O6">
+        <v>34.6674</v>
+      </c>
+      <c r="P6">
+        <v>71.3274</v>
+      </c>
+      <c r="Q6">
+        <v>99.6</v>
+      </c>
+      <c r="R6">
+        <v>99</v>
+      </c>
+      <c r="S6" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6">
+        <v>1.76022</v>
+      </c>
+      <c r="U6">
+        <v>3.9608</v>
+      </c>
+      <c r="V6">
+        <v>1.75</v>
+      </c>
+      <c r="W6">
+        <v>0.0634154</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+      <c r="AA6">
+        <v>278.509</v>
+      </c>
+      <c r="AB6">
+        <v>227</v>
+      </c>
+      <c r="AC6">
+        <v>148.364</v>
+      </c>
+      <c r="AD6">
+        <v>20.9728</v>
+      </c>
+      <c r="AE6">
+        <v>2.32852</v>
+      </c>
+      <c r="AF6">
+        <v>899.998</v>
+      </c>
+      <c r="AH6">
+        <v>119.354</v>
+      </c>
+      <c r="AI6">
+        <v>1.87791</v>
+      </c>
+      <c r="AJ6">
+        <v>2.50713</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>0.309372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>20.9319</v>
+      </c>
+      <c r="F7">
+        <v>1.74691</v>
+      </c>
+      <c r="G7">
+        <v>6.62224</v>
+      </c>
+      <c r="H7">
+        <v>154</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>4.58049</v>
+      </c>
+      <c r="K7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7">
+        <v>132.389</v>
+      </c>
+      <c r="O7">
+        <v>22.6833</v>
+      </c>
+      <c r="P7">
+        <v>97.2737</v>
+      </c>
+      <c r="Q7">
+        <v>99.6</v>
+      </c>
+      <c r="R7">
+        <v>98.7</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7">
+        <v>1.75489</v>
+      </c>
+      <c r="U7">
+        <v>4.58049</v>
+      </c>
+      <c r="V7">
+        <v>1.75</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>435.217</v>
+      </c>
+      <c r="AB7">
+        <v>159</v>
+      </c>
+      <c r="AC7">
+        <v>132.389</v>
+      </c>
+      <c r="AD7">
+        <v>11.976</v>
+      </c>
+      <c r="AE7">
+        <v>1.63024</v>
+      </c>
+      <c r="AF7">
+        <v>899.998</v>
+      </c>
+      <c r="AH7">
+        <v>96.2631</v>
+      </c>
+      <c r="AI7">
+        <v>1.24437</v>
+      </c>
+      <c r="AJ7">
+        <v>4.35553</v>
+      </c>
+      <c r="AK7">
+        <v>4</v>
+      </c>
+      <c r="AL7">
+        <v>0.574837</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8">
+        <v>4.36342</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2.62772</v>
+      </c>
+      <c r="H8">
+        <v>35</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.992431</v>
+      </c>
+      <c r="K8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N8">
+        <v>28.8418</v>
+      </c>
+      <c r="O8">
+        <v>4.36509</v>
+      </c>
+      <c r="P8">
+        <v>110.123</v>
+      </c>
+      <c r="Q8">
+        <v>100</v>
+      </c>
+      <c r="R8">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>54</v>
+      </c>
+      <c r="T8">
+        <v>1.76022</v>
+      </c>
+      <c r="U8">
+        <v>0.992431</v>
+      </c>
+      <c r="V8">
+        <v>1.75</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>427.928</v>
+      </c>
+      <c r="AB8">
+        <v>36</v>
+      </c>
+      <c r="AC8">
+        <v>28.8418</v>
+      </c>
+      <c r="AD8">
+        <v>2.65349</v>
+      </c>
+      <c r="AE8">
+        <v>0.367959</v>
+      </c>
+      <c r="AF8">
+        <v>899.998</v>
+      </c>
+      <c r="AH8">
+        <v>21.7827</v>
+      </c>
+      <c r="AI8">
+        <v>0.263401</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9">
+        <v>1.63737</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>3.03016</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.387097</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9">
+        <v>8.18977</v>
+      </c>
+      <c r="O9">
+        <v>1.63833</v>
+      </c>
+      <c r="P9">
+        <v>83.3144</v>
+      </c>
+      <c r="Q9">
+        <v>100</v>
+      </c>
+      <c r="R9">
+        <v>100</v>
+      </c>
+      <c r="S9" t="s">
+        <v>54</v>
+      </c>
+      <c r="T9">
+        <v>1.4478</v>
+      </c>
+      <c r="U9">
+        <v>0.387097</v>
+      </c>
+      <c r="V9">
+        <v>1.75</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>334.974</v>
+      </c>
+      <c r="AB9">
+        <v>13</v>
+      </c>
+      <c r="AC9">
+        <v>8.18977</v>
+      </c>
+      <c r="AD9">
+        <v>0.962557</v>
+      </c>
+      <c r="AE9">
+        <v>0.132628</v>
+      </c>
+      <c r="AF9">
+        <v>899.998</v>
+      </c>
+      <c r="AH9">
+        <v>6.97765</v>
+      </c>
+      <c r="AI9">
+        <v>0.10374</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>0.229292</v>
+      </c>
+      <c r="F10">
+        <v>0.125284</v>
+      </c>
+      <c r="G10">
+        <v>10.4024</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>3.94478</v>
+      </c>
+      <c r="K10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0.364523</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>100</v>
+      </c>
+      <c r="R10">
+        <v>100</v>
+      </c>
+      <c r="S10" t="s">
+        <v>54</v>
+      </c>
+      <c r="T10">
+        <v>1.61163</v>
+      </c>
+      <c r="U10">
+        <v>6.18959</v>
+      </c>
+      <c r="V10">
+        <v>1.75</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11">
+        <v>9.45813</v>
+      </c>
+      <c r="F11">
+        <v>3.68266</v>
+      </c>
+      <c r="G11">
+        <v>48.8069</v>
+      </c>
+      <c r="H11">
+        <v>48</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2.59335</v>
+      </c>
+      <c r="K11" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11">
+        <v>57.2973</v>
+      </c>
+      <c r="O11">
+        <v>13.364</v>
+      </c>
+      <c r="P11">
+        <v>71.4574</v>
+      </c>
+      <c r="Q11">
+        <v>100</v>
+      </c>
+      <c r="R11">
+        <v>100</v>
+      </c>
+      <c r="S11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T11">
+        <v>1.8161</v>
+      </c>
+      <c r="U11">
+        <v>4.84662</v>
+      </c>
+      <c r="V11">
+        <v>1.75</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>342.967</v>
+      </c>
+      <c r="AB11">
+        <v>48</v>
+      </c>
+      <c r="AC11">
+        <v>57.2973</v>
+      </c>
+      <c r="AD11">
+        <v>6.57729</v>
+      </c>
+      <c r="AE11">
+        <v>0.4941</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>38.9106</v>
+      </c>
+      <c r="AI11">
+        <v>0.406373</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12">
+        <v>10.0792</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.537807</v>
+      </c>
+      <c r="H12">
+        <v>92</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.532893</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N12">
+        <v>38.3575</v>
+      </c>
+      <c r="O12">
+        <v>10.0851</v>
+      </c>
+      <c r="P12">
+        <v>63.3896</v>
+      </c>
+      <c r="Q12">
+        <v>100</v>
+      </c>
+      <c r="R12">
+        <v>100</v>
+      </c>
+      <c r="S12" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12">
+        <v>1.778</v>
+      </c>
+      <c r="U12">
+        <v>0.532893</v>
+      </c>
+      <c r="V12">
+        <v>1.75</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>239.718</v>
+      </c>
+      <c r="AB12">
+        <v>94</v>
+      </c>
+      <c r="AC12">
+        <v>38.3575</v>
+      </c>
+      <c r="AD12">
+        <v>6.29962</v>
+      </c>
+      <c r="AE12">
+        <v>0.958603</v>
+      </c>
+      <c r="AF12">
+        <v>799.999</v>
+      </c>
+      <c r="AH12">
+        <v>22.1031</v>
+      </c>
+      <c r="AI12">
+        <v>0.307865</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13">
+        <v>40.4286</v>
+      </c>
+      <c r="F13">
+        <v>6.59466</v>
+      </c>
+      <c r="G13">
+        <v>56.2484</v>
+      </c>
+      <c r="H13">
+        <v>296</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10.0768</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13">
+        <v>226.07</v>
+      </c>
+      <c r="O13">
+        <v>47.54</v>
+      </c>
+      <c r="P13">
+        <v>79.2561</v>
+      </c>
+      <c r="Q13">
+        <v>99.75</v>
+      </c>
+      <c r="R13">
+        <v>100</v>
+      </c>
+      <c r="S13" t="s">
+        <v>54</v>
+      </c>
+      <c r="T13">
+        <v>1.4224</v>
+      </c>
+      <c r="U13">
+        <v>12.4152</v>
+      </c>
+      <c r="V13">
+        <v>1.75</v>
+      </c>
+      <c r="W13">
+        <v>0.172074</v>
+      </c>
+      <c r="X13">
+        <v>0.0893004</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>3</v>
+      </c>
+      <c r="AA13">
+        <v>357.766</v>
+      </c>
+      <c r="AB13">
+        <v>303</v>
+      </c>
+      <c r="AC13">
+        <v>226.07</v>
+      </c>
+      <c r="AD13">
+        <v>24.8777</v>
+      </c>
+      <c r="AE13">
+        <v>3.09322</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>175.427</v>
+      </c>
+      <c r="AI13">
+        <v>2.16963</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14">
+        <v>0.0403076</v>
+      </c>
+      <c r="F14">
+        <v>3.4628</v>
+      </c>
+      <c r="G14">
+        <v>16.5243</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10.102</v>
+      </c>
+      <c r="K14" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>4.25646</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+      <c r="R14">
+        <v>100</v>
+      </c>
+      <c r="S14" t="s">
+        <v>54</v>
+      </c>
+      <c r="T14">
+        <v>1.4224</v>
+      </c>
+      <c r="U14">
+        <v>12.5604</v>
+      </c>
+      <c r="V14">
+        <v>1.75</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.730399</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15">
+        <v>7.22023</v>
+      </c>
+      <c r="F15">
+        <v>5.61888</v>
+      </c>
+      <c r="G15">
+        <v>0.554241</v>
+      </c>
+      <c r="H15">
+        <v>48</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.636271</v>
+      </c>
+      <c r="K15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>43</v>
+      </c>
+      <c r="N15">
+        <v>29.8983</v>
+      </c>
+      <c r="O15">
+        <v>13.9292</v>
+      </c>
+      <c r="P15">
+        <v>35.7742</v>
+      </c>
+      <c r="Q15">
+        <v>100</v>
+      </c>
+      <c r="R15">
+        <v>100</v>
+      </c>
+      <c r="S15" t="s">
+        <v>54</v>
+      </c>
+      <c r="T15">
+        <v>1.651</v>
+      </c>
+      <c r="U15">
+        <v>0.636271</v>
+      </c>
+      <c r="V15">
+        <v>1.75</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1.08336</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>235.723</v>
+      </c>
+      <c r="AB15">
+        <v>50</v>
+      </c>
+      <c r="AC15">
+        <v>29.8983</v>
+      </c>
+      <c r="AD15">
+        <v>4.99355</v>
+      </c>
+      <c r="AE15">
+        <v>0.511474</v>
+      </c>
+      <c r="AF15">
+        <v>899.998</v>
+      </c>
+      <c r="AH15">
+        <v>21.9464</v>
+      </c>
+      <c r="AI15">
+        <v>0.672727</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16">
+        <v>3.58575</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1.30282</v>
+      </c>
+      <c r="H16">
+        <v>30</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.338684</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>15.4671</v>
+      </c>
+      <c r="O16">
+        <v>3.58685</v>
+      </c>
+      <c r="P16">
+        <v>71.8695</v>
+      </c>
+      <c r="Q16">
+        <v>100</v>
+      </c>
+      <c r="R16">
+        <v>100</v>
+      </c>
+      <c r="S16" t="s">
+        <v>54</v>
+      </c>
+      <c r="T16">
+        <v>1.6256</v>
+      </c>
+      <c r="U16">
+        <v>1.06683</v>
+      </c>
+      <c r="V16">
+        <v>1.75</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>268.473</v>
+      </c>
+      <c r="AB16">
+        <v>31</v>
+      </c>
+      <c r="AC16">
+        <v>15.4671</v>
+      </c>
+      <c r="AD16">
+        <v>2.26816</v>
+      </c>
+      <c r="AE16">
+        <v>0.317461</v>
+      </c>
+      <c r="AF16">
+        <v>649.999</v>
+      </c>
+      <c r="AH16">
+        <v>6.73275</v>
+      </c>
+      <c r="AI16">
+        <v>0.11786</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17">
+        <v>1.97737</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4.07155</v>
+      </c>
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>10.102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N17">
+        <v>8.22135</v>
+      </c>
+      <c r="O17">
+        <v>1.98965</v>
+      </c>
+      <c r="P17">
+        <v>68.8676</v>
+      </c>
+      <c r="Q17">
+        <v>100</v>
+      </c>
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="S17" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17">
+        <v>1.4224</v>
+      </c>
+      <c r="U17">
+        <v>10.102</v>
+      </c>
+      <c r="V17">
+        <v>1.75</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>233.876</v>
+      </c>
+      <c r="AB17">
+        <v>12</v>
+      </c>
+      <c r="AC17">
+        <v>8.22135</v>
+      </c>
+      <c r="AD17">
+        <v>1.38396</v>
+      </c>
+      <c r="AE17">
+        <v>0.122336</v>
+      </c>
+      <c r="AF17">
+        <v>520</v>
+      </c>
+      <c r="AH17">
+        <v>6.89815</v>
+      </c>
+      <c r="AI17">
+        <v>0.103252</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18">
+        <v>15.5628</v>
+      </c>
+      <c r="F18">
+        <v>0.683209</v>
+      </c>
+      <c r="G18">
+        <v>5.28436</v>
+      </c>
+      <c r="H18">
+        <v>60</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>3.37061</v>
+      </c>
+      <c r="K18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18">
+        <v>63.8933</v>
+      </c>
+      <c r="O18">
+        <v>16.3002</v>
+      </c>
+      <c r="P18">
+        <v>65.33</v>
+      </c>
+      <c r="Q18">
+        <v>100</v>
+      </c>
+      <c r="R18">
+        <v>100</v>
+      </c>
+      <c r="S18" t="s">
+        <v>54</v>
+      </c>
+      <c r="T18">
+        <v>1.4732</v>
+      </c>
+      <c r="U18">
+        <v>3.37061</v>
+      </c>
+      <c r="V18">
+        <v>1.75</v>
+      </c>
+      <c r="W18">
+        <v>0.0521579</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AA18">
+        <v>327.412</v>
+      </c>
+      <c r="AB18">
+        <v>258</v>
+      </c>
+      <c r="AC18">
+        <v>63.8933</v>
+      </c>
+      <c r="AD18">
+        <v>7.68292</v>
+      </c>
+      <c r="AE18">
+        <v>2.60891</v>
+      </c>
+      <c r="AF18">
+        <v>649.999</v>
+      </c>
+      <c r="AH18">
+        <v>46.4886</v>
+      </c>
+      <c r="AI18">
+        <v>0.947323</v>
+      </c>
+      <c r="AJ18">
+        <v>2.49279</v>
+      </c>
+      <c r="AK18">
+        <v>2</v>
+      </c>
+      <c r="AL18">
+        <v>0.289192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19">
+        <v>183.843</v>
+      </c>
+      <c r="F19">
+        <v>25.0183</v>
+      </c>
+      <c r="G19">
+        <v>1.01868</v>
+      </c>
+      <c r="H19">
+        <v>1216</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.763221</v>
+      </c>
+      <c r="K19" t="s">
+        <v>42</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>100</v>
+      </c>
+      <c r="R19">
+        <v>100</v>
+      </c>
+      <c r="S19" t="s">
+        <v>54</v>
+      </c>
+      <c r="T19">
+        <v>1.524</v>
+      </c>
+      <c r="U19">
+        <v>0.763221</v>
+      </c>
+      <c r="V19">
+        <v>1.75</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>3.88934</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>1995</v>
+      </c>
+      <c r="AC19">
+        <v>839.587</v>
+      </c>
+      <c r="AD19">
+        <v>106.445</v>
+      </c>
+      <c r="AE19">
+        <v>20.3835</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>637.729</v>
+      </c>
+      <c r="AI19">
+        <v>11.4611</v>
+      </c>
+      <c r="AJ19">
+        <v>46617.3</v>
+      </c>
+      <c r="AK19">
+        <v>2220</v>
+      </c>
+      <c r="AL19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20">
+        <v>177.036</v>
+      </c>
+      <c r="F20">
+        <v>23.9917</v>
+      </c>
+      <c r="G20">
+        <v>0.467677</v>
+      </c>
+      <c r="H20">
+        <v>1173</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>3.94478</v>
+      </c>
+      <c r="K20" t="s">
+        <v>42</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>100</v>
+      </c>
+      <c r="R20">
+        <v>99</v>
+      </c>
+      <c r="S20" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20">
+        <v>1.59552</v>
+      </c>
+      <c r="U20">
+        <v>3.94478</v>
+      </c>
+      <c r="V20">
+        <v>1.75</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>3.88934</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>1921</v>
+      </c>
+      <c r="AC20">
+        <v>813.93</v>
+      </c>
+      <c r="AD20">
+        <v>102.525</v>
+      </c>
+      <c r="AE20">
+        <v>19.6313</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>616.404</v>
+      </c>
+      <c r="AI20">
+        <v>10.9023</v>
+      </c>
+      <c r="AJ20">
+        <v>46072.4</v>
+      </c>
+      <c r="AK20">
+        <v>2119</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21">
+        <v>116.006</v>
+      </c>
+      <c r="F21">
+        <v>14.2963</v>
+      </c>
+      <c r="G21">
+        <v>8.74389</v>
+      </c>
+      <c r="H21">
+        <v>703</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>3.36963</v>
+      </c>
+      <c r="K21" t="s">
+        <v>42</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>99.75</v>
+      </c>
+      <c r="R21">
+        <v>100</v>
+      </c>
+      <c r="S21" t="s">
+        <v>54</v>
+      </c>
+      <c r="T21">
+        <v>1.5113</v>
+      </c>
+      <c r="U21">
+        <v>3.36963</v>
+      </c>
+      <c r="V21">
+        <v>1.75</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>3.88934</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>1447</v>
+      </c>
+      <c r="AC21">
+        <v>508.565</v>
+      </c>
+      <c r="AD21">
+        <v>62.7731</v>
+      </c>
+      <c r="AE21">
+        <v>14.7839</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>417.609</v>
+      </c>
+      <c r="AI21">
+        <v>7.67957</v>
+      </c>
+      <c r="AJ21">
+        <v>38213</v>
+      </c>
+      <c r="AK21">
+        <v>1540</v>
+      </c>
+      <c r="AL21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22">
+        <v>39.2124</v>
+      </c>
+      <c r="F22">
+        <v>13.1499</v>
+      </c>
+      <c r="G22">
+        <v>0.339453</v>
+      </c>
+      <c r="H22">
+        <v>223</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>1.89787</v>
+      </c>
+      <c r="K22" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>100</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22" t="s">
+        <v>54</v>
+      </c>
+      <c r="T22">
+        <v>1.4224</v>
+      </c>
+      <c r="U22">
+        <v>1.89787</v>
+      </c>
+      <c r="V22">
+        <v>1.75</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>2.88836</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>497</v>
+      </c>
+      <c r="AC22">
+        <v>168.833</v>
+      </c>
+      <c r="AD22">
+        <v>21.6175</v>
+      </c>
+      <c r="AE22">
+        <v>5.05741</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>125.625</v>
+      </c>
+      <c r="AI22">
+        <v>2.47396</v>
+      </c>
+      <c r="AJ22">
+        <v>22754.8</v>
+      </c>
+      <c r="AK22">
+        <v>760</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" t="s">
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <v>16.1731</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>118</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1.66632</v>
+      </c>
+      <c r="K23" t="s">
+        <v>42</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>99.86</v>
+      </c>
+      <c r="R23">
+        <v>99.75</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23">
+        <v>1.45685</v>
+      </c>
+      <c r="U23">
+        <v>1.66632</v>
+      </c>
+      <c r="V23">
+        <v>1.75</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>120</v>
+      </c>
+      <c r="AC23">
+        <v>66.0986</v>
+      </c>
+      <c r="AD23">
+        <v>10.8341</v>
+      </c>
+      <c r="AE23">
+        <v>1.24481</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>50.0107</v>
+      </c>
+      <c r="AI23">
+        <v>0.986667</v>
+      </c>
+      <c r="AJ23">
+        <v>73.5336</v>
+      </c>
+      <c r="AK23">
+        <v>35</v>
+      </c>
+      <c r="AL23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" t="s">
+        <v>105</v>
+      </c>
+      <c r="E24">
+        <v>11.191</v>
+      </c>
+      <c r="F24">
+        <v>2.07951</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>72</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>1.32129</v>
+      </c>
+      <c r="K24" t="s">
+        <v>42</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24">
+        <v>51.0689</v>
+      </c>
+      <c r="O24">
+        <v>13.2724</v>
+      </c>
+      <c r="P24">
+        <v>64.1292</v>
+      </c>
+      <c r="Q24">
+        <v>100</v>
+      </c>
+      <c r="R24">
+        <v>100</v>
+      </c>
+      <c r="S24" t="s">
+        <v>54</v>
+      </c>
+      <c r="T24">
+        <v>1.651</v>
+      </c>
+      <c r="U24">
+        <v>1.32129</v>
+      </c>
+      <c r="V24">
+        <v>1.75</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>251.926</v>
+      </c>
+      <c r="AB24">
+        <v>73</v>
+      </c>
+      <c r="AC24">
+        <v>51.0689</v>
+      </c>
+      <c r="AD24">
+        <v>7.98084</v>
+      </c>
+      <c r="AE24">
+        <v>0.760675</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>33.3993</v>
+      </c>
+      <c r="AI24">
+        <v>1.19446</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25">
+        <v>6.72955</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1.5782</v>
+      </c>
+      <c r="H25">
+        <v>48</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1.21608</v>
+      </c>
+      <c r="K25" t="s">
+        <v>42</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25">
+        <v>34.2463</v>
+      </c>
+      <c r="O25">
+        <v>6.73662</v>
+      </c>
+      <c r="P25">
+        <v>84.7266</v>
+      </c>
+      <c r="Q25">
+        <v>100</v>
+      </c>
+      <c r="R25">
+        <v>100</v>
+      </c>
+      <c r="S25" t="s">
+        <v>54</v>
+      </c>
+      <c r="T25">
+        <v>1.5494</v>
+      </c>
+      <c r="U25">
+        <v>1.21608</v>
+      </c>
+      <c r="V25">
+        <v>1.75</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>295.316</v>
+      </c>
+      <c r="AB25">
+        <v>49</v>
+      </c>
+      <c r="AC25">
+        <v>34.2463</v>
+      </c>
+      <c r="AD25">
+        <v>4.56553</v>
+      </c>
+      <c r="AE25">
+        <v>0.508413</v>
+      </c>
+      <c r="AF25">
+        <v>649.999</v>
+      </c>
+      <c r="AH25">
+        <v>24.6884</v>
+      </c>
+      <c r="AI25">
+        <v>0.652071</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26">
+        <v>1.39352</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>11</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0.311727</v>
+      </c>
+      <c r="K26" t="s">
+        <v>42</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26">
+        <v>8.39595</v>
+      </c>
+      <c r="O26">
+        <v>1.39501</v>
+      </c>
+      <c r="P26">
+        <v>100.309</v>
+      </c>
+      <c r="Q26">
+        <v>99.6</v>
+      </c>
+      <c r="R26">
+        <v>99.6</v>
+      </c>
+      <c r="S26" t="s">
+        <v>54</v>
+      </c>
+      <c r="T26">
+        <v>1.51791</v>
+      </c>
+      <c r="U26">
+        <v>0.311727</v>
+      </c>
+      <c r="V26">
+        <v>1.75</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>407.353</v>
+      </c>
+      <c r="AB26">
+        <v>12</v>
+      </c>
+      <c r="AC26">
+        <v>8.39595</v>
+      </c>
+      <c r="AD26">
+        <v>0.811455</v>
+      </c>
+      <c r="AE26">
+        <v>0.126</v>
+      </c>
+      <c r="AF26">
+        <v>899.998</v>
+      </c>
+      <c r="AH26">
+        <v>7.01772</v>
+      </c>
+      <c r="AI26">
+        <v>0.260916</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" t="s">
+        <v>113</v>
+      </c>
+      <c r="D27" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27">
+        <v>8.04106</v>
+      </c>
+      <c r="F27">
+        <v>1.73699</v>
+      </c>
+      <c r="G27">
+        <v>1.92482</v>
+      </c>
+      <c r="H27">
+        <v>63</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1.60887</v>
+      </c>
+      <c r="K27" t="s">
+        <v>42</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27">
+        <v>48.654</v>
+      </c>
+      <c r="O27">
+        <v>10.8504</v>
+      </c>
+      <c r="P27">
+        <v>74.7344</v>
+      </c>
+      <c r="Q27">
+        <v>99.7</v>
+      </c>
+      <c r="R27">
+        <v>99.6</v>
+      </c>
+      <c r="S27" t="s">
+        <v>54</v>
+      </c>
+      <c r="T27">
+        <v>1.51791</v>
+      </c>
+      <c r="U27">
+        <v>1.60887</v>
+      </c>
+      <c r="V27">
+        <v>1.75</v>
+      </c>
+      <c r="W27">
+        <v>1.06713</v>
+      </c>
+      <c r="X27">
+        <v>0.42185</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>13</v>
+      </c>
+      <c r="AA27">
+        <v>437.485</v>
+      </c>
+      <c r="AB27">
+        <v>65</v>
+      </c>
+      <c r="AC27">
+        <v>48.654</v>
+      </c>
+      <c r="AD27">
+        <v>4.37845</v>
+      </c>
+      <c r="AE27">
+        <v>0.679129</v>
+      </c>
+      <c r="AF27">
+        <v>899.998</v>
+      </c>
+      <c r="AH27">
+        <v>34.2597</v>
+      </c>
+      <c r="AI27">
+        <v>0.808393</v>
+      </c>
+      <c r="AJ27">
+        <v>1.40475</v>
+      </c>
+      <c r="AK27">
+        <v>1</v>
+      </c>
+      <c r="AL27">
+        <v>0.0309863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28">
+        <v>9.64942</v>
+      </c>
+      <c r="F28">
+        <v>2.9559</v>
+      </c>
+      <c r="G28">
+        <v>4.46224</v>
+      </c>
+      <c r="H28">
+        <v>40</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4.02529</v>
+      </c>
+      <c r="K28" t="s">
+        <v>42</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28">
+        <v>57.2688</v>
+      </c>
+      <c r="O28">
+        <v>13.3257</v>
+      </c>
+      <c r="P28">
+        <v>71.627</v>
+      </c>
+      <c r="Q28">
+        <v>99.6</v>
+      </c>
+      <c r="R28">
+        <v>99.7</v>
+      </c>
+      <c r="S28" t="s">
+        <v>54</v>
+      </c>
+      <c r="T28">
+        <v>1.49411</v>
+      </c>
+      <c r="U28">
+        <v>4.02529</v>
+      </c>
+      <c r="V28">
+        <v>1.75</v>
+      </c>
+      <c r="W28">
+        <v>0.716356</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>460.696</v>
+      </c>
+      <c r="AB28">
+        <v>85</v>
+      </c>
+      <c r="AC28">
+        <v>57.2688</v>
+      </c>
+      <c r="AD28">
+        <v>4.89405</v>
+      </c>
+      <c r="AE28">
+        <v>0.886996</v>
+      </c>
+      <c r="AF28">
+        <v>899.998</v>
+      </c>
+      <c r="AH28">
+        <v>39.5463</v>
+      </c>
+      <c r="AI28">
+        <v>0.854178</v>
+      </c>
+      <c r="AJ28">
+        <v>3.39195</v>
+      </c>
+      <c r="AK28">
+        <v>4</v>
+      </c>
+      <c r="AL28">
+        <v>0.362634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29">
+        <v>6.84971</v>
+      </c>
+      <c r="F29">
+        <v>2.35896</v>
+      </c>
+      <c r="G29">
+        <v>4.22299</v>
+      </c>
+      <c r="H29">
+        <v>32</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>3.16855</v>
+      </c>
+      <c r="K29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29">
+        <v>45.1505</v>
+      </c>
+      <c r="O29">
+        <v>9.39175</v>
+      </c>
+      <c r="P29">
+        <v>80.1244</v>
+      </c>
+      <c r="Q29">
+        <v>99.7</v>
+      </c>
+      <c r="R29">
+        <v>99.7</v>
+      </c>
+      <c r="S29" t="s">
+        <v>54</v>
+      </c>
+      <c r="T29">
+        <v>1.49411</v>
+      </c>
+      <c r="U29">
+        <v>3.16855</v>
+      </c>
+      <c r="V29">
+        <v>1.75</v>
+      </c>
+      <c r="W29">
+        <v>0.179309</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>1</v>
+      </c>
+      <c r="AA29">
+        <v>479.979</v>
+      </c>
+      <c r="AB29">
+        <v>67</v>
+      </c>
+      <c r="AC29">
+        <v>45.1505</v>
+      </c>
+      <c r="AD29">
+        <v>3.70344</v>
+      </c>
+      <c r="AE29">
+        <v>0.69992</v>
+      </c>
+      <c r="AF29">
+        <v>899.998</v>
+      </c>
+      <c r="AH29">
+        <v>27.181</v>
+      </c>
+      <c r="AI29">
+        <v>0.526576</v>
+      </c>
+      <c r="AJ29">
+        <v>1.36426</v>
+      </c>
+      <c r="AK29">
+        <v>2</v>
+      </c>
+      <c r="AL29">
+        <v>0.163954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30">
+        <v>5.60611</v>
+      </c>
+      <c r="F30">
+        <v>3.81243</v>
+      </c>
+      <c r="G30">
+        <v>4.01548</v>
+      </c>
+      <c r="H30">
+        <v>24</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>3.10366</v>
+      </c>
+      <c r="K30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30">
+        <v>39.4206</v>
+      </c>
+      <c r="O30">
+        <v>9.59786</v>
+      </c>
+      <c r="P30">
+        <v>68.4538</v>
+      </c>
+      <c r="Q30">
+        <v>99.8</v>
+      </c>
+      <c r="R30">
+        <v>99.7</v>
+      </c>
+      <c r="S30" t="s">
+        <v>124</v>
+      </c>
+      <c r="T30">
+        <v>1.49411</v>
+      </c>
+      <c r="U30">
+        <v>3.10366</v>
+      </c>
+      <c r="V30">
+        <v>1.75</v>
+      </c>
+      <c r="W30">
+        <v>0.175138</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>1</v>
+      </c>
+      <c r="AA30">
+        <v>508.719</v>
+      </c>
+      <c r="AB30">
+        <v>51</v>
+      </c>
+      <c r="AC30">
+        <v>39.4206</v>
+      </c>
+      <c r="AD30">
+        <v>3.05077</v>
+      </c>
+      <c r="AE30">
+        <v>0.533187</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>26.7304</v>
+      </c>
+      <c r="AI30">
+        <v>0.454424</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>0</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C31" t="s">
+        <v>126</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
+      </c>
+      <c r="E31">
+        <v>7.73891</v>
+      </c>
+      <c r="F31">
+        <v>2.57936</v>
+      </c>
+      <c r="G31">
+        <v>3.60358</v>
+      </c>
+      <c r="H31">
+        <v>32</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>3.5415</v>
+      </c>
+      <c r="K31" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31">
+        <v>48.4633</v>
+      </c>
+      <c r="O31">
+        <v>10.5399</v>
+      </c>
+      <c r="P31">
+        <v>76.6344</v>
+      </c>
+      <c r="Q31">
+        <v>99.6</v>
+      </c>
+      <c r="R31">
+        <v>99.3</v>
+      </c>
+      <c r="S31" t="s">
+        <v>124</v>
+      </c>
+      <c r="T31">
+        <v>1.48811</v>
+      </c>
+      <c r="U31">
+        <v>3.5415</v>
+      </c>
+      <c r="V31">
+        <v>1.75</v>
+      </c>
+      <c r="W31">
+        <v>0.213438</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>3</v>
+      </c>
+      <c r="AA31">
+        <v>492.363</v>
+      </c>
+      <c r="AB31">
+        <v>68</v>
+      </c>
+      <c r="AC31">
+        <v>48.4633</v>
+      </c>
+      <c r="AD31">
+        <v>3.87519</v>
+      </c>
+      <c r="AE31">
+        <v>0.712601</v>
+      </c>
+      <c r="AF31">
+        <v>899.998</v>
+      </c>
+      <c r="AH31">
+        <v>30.2777</v>
+      </c>
+      <c r="AI31">
+        <v>0.547072</v>
+      </c>
+      <c r="AJ31">
+        <v>2.54926</v>
+      </c>
+      <c r="AK31">
+        <v>3</v>
+      </c>
+      <c r="AL31">
+        <v>0.211023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32">
+        <v>1.5577</v>
+      </c>
+      <c r="F32">
+        <v>2.70947</v>
+      </c>
+      <c r="G32">
+        <v>1.92722</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0.862687</v>
+      </c>
+      <c r="K32" t="s">
+        <v>42</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>43</v>
+      </c>
+      <c r="N32">
+        <v>11.457</v>
+      </c>
+      <c r="O32">
+        <v>4.26878</v>
+      </c>
+      <c r="P32">
+        <v>44.7318</v>
+      </c>
+      <c r="Q32">
+        <v>100</v>
+      </c>
+      <c r="R32">
+        <v>99.8</v>
+      </c>
+      <c r="S32" t="s">
+        <v>124</v>
+      </c>
+      <c r="T32">
+        <v>1.49561</v>
+      </c>
+      <c r="U32">
+        <v>0.862687</v>
+      </c>
+      <c r="V32">
+        <v>1.75</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>488.206</v>
+      </c>
+      <c r="AB32">
+        <v>17</v>
+      </c>
+      <c r="AC32">
+        <v>11.457</v>
+      </c>
+      <c r="AD32">
+        <v>0.923919</v>
+      </c>
+      <c r="AE32">
+        <v>0.178225</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>4.14881</v>
+      </c>
+      <c r="AI32">
+        <v>0.123072</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" t="s">
+        <v>132</v>
+      </c>
+      <c r="E33">
+        <v>7.61624</v>
+      </c>
+      <c r="F33">
+        <v>1.04398</v>
+      </c>
+      <c r="G33">
+        <v>0.817951</v>
+      </c>
+      <c r="H33">
+        <v>32</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>3.5415</v>
+      </c>
+      <c r="K33" t="s">
+        <v>42</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33">
+        <v>48.4979</v>
+      </c>
+      <c r="O33">
+        <v>8.98859</v>
+      </c>
+      <c r="P33">
+        <v>89.925</v>
+      </c>
+      <c r="Q33">
+        <v>99.6</v>
+      </c>
+      <c r="R33">
+        <v>99.5</v>
+      </c>
+      <c r="S33" t="s">
+        <v>124</v>
+      </c>
+      <c r="T33">
+        <v>1.49111</v>
+      </c>
+      <c r="U33">
+        <v>3.5415</v>
+      </c>
+      <c r="V33">
+        <v>1.75</v>
+      </c>
+      <c r="W33">
+        <v>0.322561</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>3</v>
+      </c>
+      <c r="AA33">
+        <v>492.816</v>
+      </c>
+      <c r="AB33">
+        <v>68</v>
+      </c>
+      <c r="AC33">
+        <v>48.4979</v>
+      </c>
+      <c r="AD33">
+        <v>3.87439</v>
+      </c>
+      <c r="AE33">
+        <v>0.710523</v>
+      </c>
+      <c r="AF33">
+        <v>899.998</v>
+      </c>
+      <c r="AH33">
+        <v>30.3363</v>
+      </c>
+      <c r="AI33">
+        <v>0.548077</v>
+      </c>
+      <c r="AJ33">
+        <v>2.53275</v>
+      </c>
+      <c r="AK33">
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <v>0.19203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34">
+        <v>1.55424</v>
+      </c>
+      <c r="F34">
+        <v>3.21561</v>
+      </c>
+      <c r="G34">
+        <v>1.65221</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.861825</v>
+      </c>
+      <c r="K34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>43</v>
+      </c>
+      <c r="N34">
+        <v>11.4418</v>
+      </c>
+      <c r="O34">
+        <v>4.77132</v>
+      </c>
+      <c r="P34">
+        <v>39.9672</v>
+      </c>
+      <c r="Q34">
+        <v>99.9</v>
+      </c>
+      <c r="R34">
+        <v>99.6</v>
+      </c>
+      <c r="S34" t="s">
+        <v>124</v>
+      </c>
+      <c r="T34">
+        <v>1.49261</v>
+      </c>
+      <c r="U34">
+        <v>0.861825</v>
+      </c>
+      <c r="V34">
+        <v>1.75</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>487.955</v>
+      </c>
+      <c r="AB34">
+        <v>17</v>
+      </c>
+      <c r="AC34">
+        <v>11.4418</v>
+      </c>
+      <c r="AD34">
+        <v>0.923163</v>
+      </c>
+      <c r="AE34">
+        <v>0.177701</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>4.14338</v>
+      </c>
+      <c r="AI34">
+        <v>0.122977</v>
+      </c>
+      <c r="AJ34">
+        <v>0</v>
+      </c>
+      <c r="AK34">
+        <v>0</v>
+      </c>
+      <c r="AL34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>137</v>
+      </c>
+      <c r="E35">
+        <v>5.51034</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0.627234</v>
+      </c>
+      <c r="H35">
+        <v>292</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2.46663</v>
+      </c>
+      <c r="K35" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>43</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>99.8</v>
+      </c>
+      <c r="R35">
+        <v>99.6</v>
+      </c>
+      <c r="S35" t="s">
+        <v>124</v>
+      </c>
+      <c r="T35">
+        <v>1.32817</v>
+      </c>
+      <c r="U35">
+        <v>2.46663</v>
+      </c>
+      <c r="V35">
+        <v>1.75</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>52</v>
+      </c>
+      <c r="AC35">
+        <v>33.132</v>
+      </c>
+      <c r="AD35">
+        <v>2.82581</v>
+      </c>
+      <c r="AE35">
+        <v>0.539522</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>24.1818</v>
+      </c>
+      <c r="AI35">
+        <v>0.550194</v>
+      </c>
+      <c r="AJ35">
+        <v>1633.55</v>
+      </c>
+      <c r="AK35">
+        <v>61</v>
+      </c>
+      <c r="AL35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>140</v>
+      </c>
+      <c r="E36">
+        <v>37.1597</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>236</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>3.20142</v>
+      </c>
+      <c r="K36" t="s">
+        <v>42</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>43</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>100</v>
+      </c>
+      <c r="R36">
+        <v>100</v>
+      </c>
+      <c r="S36" t="s">
+        <v>124</v>
+      </c>
+      <c r="T36">
+        <v>1.3843</v>
+      </c>
+      <c r="U36">
+        <v>3.20142</v>
+      </c>
+      <c r="V36">
+        <v>1.75</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+      <c r="AA36">
+        <v>0</v>
+      </c>
+      <c r="AB36">
+        <v>711</v>
+      </c>
+      <c r="AC36">
+        <v>152.957</v>
+      </c>
+      <c r="AD36">
+        <v>14.2985</v>
+      </c>
+      <c r="AE36">
+        <v>7.27602</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>129.162</v>
+      </c>
+      <c r="AI36">
+        <v>3.47341</v>
+      </c>
+      <c r="AJ36">
+        <v>323.98</v>
+      </c>
+      <c r="AK36">
+        <v>451</v>
+      </c>
+      <c r="AL36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37">
+        <v>37.641</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>250</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>3.11312</v>
+      </c>
+      <c r="K37" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>99.84</v>
+      </c>
+      <c r="R37">
+        <v>99.6</v>
+      </c>
+      <c r="S37" t="s">
+        <v>124</v>
+      </c>
+      <c r="T37">
+        <v>1.37877</v>
+      </c>
+      <c r="U37">
+        <v>3.11312</v>
+      </c>
+      <c r="V37">
+        <v>1.75</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+      <c r="AA37">
+        <v>0</v>
+      </c>
+      <c r="AB37">
+        <v>753</v>
+      </c>
+      <c r="AC37">
+        <v>155.892</v>
+      </c>
+      <c r="AD37">
+        <v>14.3838</v>
+      </c>
+      <c r="AE37">
+        <v>7.78043</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>122.962</v>
+      </c>
+      <c r="AI37">
+        <v>4.05545</v>
+      </c>
+      <c r="AJ37">
+        <v>110.996</v>
+      </c>
+      <c r="AK37">
+        <v>464</v>
+      </c>
+      <c r="AL37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38">
+        <v>45.9013</v>
+      </c>
+      <c r="F38">
+        <v>4.33989</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>484</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>5.22423</v>
+      </c>
+      <c r="K38" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>43</v>
+      </c>
+      <c r="N38">
+        <v>294.841</v>
+      </c>
+      <c r="O38">
+        <v>50.255</v>
+      </c>
+      <c r="P38">
+        <v>97.7819</v>
+      </c>
+      <c r="Q38">
+        <v>99.85</v>
+      </c>
+      <c r="R38">
+        <v>98.8</v>
+      </c>
+      <c r="S38" t="s">
+        <v>124</v>
+      </c>
+      <c r="T38">
+        <v>1.57975</v>
+      </c>
+      <c r="U38">
+        <v>5.22423</v>
+      </c>
+      <c r="V38">
+        <v>1.75</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+      <c r="AA38">
+        <v>432.768</v>
+      </c>
+      <c r="AB38">
+        <v>488</v>
+      </c>
+      <c r="AC38">
+        <v>294.841</v>
+      </c>
+      <c r="AD38">
+        <v>26.8225</v>
+      </c>
+      <c r="AE38">
+        <v>5.01298</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>156.062</v>
+      </c>
+      <c r="AI38">
+        <v>3.37276</v>
+      </c>
+      <c r="AJ38">
+        <v>0</v>
+      </c>
+      <c r="AK38">
+        <v>0</v>
+      </c>
+      <c r="AL38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39">
+        <v>18.0098</v>
+      </c>
+      <c r="F39">
+        <v>3.29359</v>
+      </c>
+      <c r="G39">
+        <v>0.523145</v>
+      </c>
+      <c r="H39">
+        <v>192</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>2.23888</v>
+      </c>
+      <c r="K39" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <v>121.292</v>
+      </c>
+      <c r="O39">
+        <v>21.3415</v>
+      </c>
+      <c r="P39">
+        <v>94.7228</v>
+      </c>
+      <c r="Q39">
+        <v>99.85</v>
+      </c>
+      <c r="R39">
+        <v>98.75</v>
+      </c>
+      <c r="S39" t="s">
+        <v>124</v>
+      </c>
+      <c r="T39">
+        <v>1.57895</v>
+      </c>
+      <c r="U39">
+        <v>2.23888</v>
+      </c>
+      <c r="V39">
+        <v>1.75</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+      <c r="AA39">
+        <v>458.812</v>
+      </c>
+      <c r="AB39">
+        <v>194</v>
+      </c>
+      <c r="AC39">
+        <v>121.292</v>
+      </c>
+      <c r="AD39">
+        <v>10.4079</v>
+      </c>
+      <c r="AE39">
+        <v>1.99963</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>61.3566</v>
+      </c>
+      <c r="AI39">
+        <v>1.05973</v>
+      </c>
+      <c r="AJ39">
+        <v>0</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40">
+        <v>21.9408</v>
+      </c>
+      <c r="F40">
+        <v>6.20326</v>
+      </c>
+      <c r="G40">
+        <v>0.758664</v>
+      </c>
+      <c r="H40">
+        <v>142</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>7.95738</v>
+      </c>
+      <c r="K40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>43</v>
+      </c>
+      <c r="N40">
+        <v>54.4025</v>
+      </c>
+      <c r="O40">
+        <v>28.1782</v>
+      </c>
+      <c r="P40">
+        <v>32.1777</v>
+      </c>
+      <c r="Q40">
+        <v>100.1</v>
+      </c>
+      <c r="R40">
+        <v>100.15</v>
+      </c>
+      <c r="S40" t="s">
+        <v>124</v>
+      </c>
+      <c r="T40">
+        <v>1.42454</v>
+      </c>
+      <c r="U40">
+        <v>7.95738</v>
+      </c>
+      <c r="V40">
+        <v>1.75</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>312.254</v>
+      </c>
+      <c r="AB40">
+        <v>569</v>
+      </c>
+      <c r="AC40">
+        <v>54.4025</v>
+      </c>
+      <c r="AD40">
+        <v>6.85924</v>
+      </c>
+      <c r="AE40">
+        <v>5.84243</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>42.2014</v>
+      </c>
+      <c r="AI40">
+        <v>1.62</v>
+      </c>
+      <c r="AJ40">
+        <v>0</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41">
+        <v>2.49751</v>
+      </c>
+      <c r="F41">
+        <v>1.67517</v>
+      </c>
+      <c r="G41">
+        <v>0.784792</v>
+      </c>
+      <c r="H41">
+        <v>27</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>2.43707</v>
+      </c>
+      <c r="K41" t="s">
+        <v>42</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>43</v>
+      </c>
+      <c r="N41">
+        <v>12.2269</v>
+      </c>
+      <c r="O41">
+        <v>4.2178</v>
+      </c>
+      <c r="P41">
+        <v>48.3146</v>
+      </c>
+      <c r="Q41">
+        <v>99.83</v>
+      </c>
+      <c r="R41">
+        <v>98.7</v>
+      </c>
+      <c r="S41" t="s">
+        <v>124</v>
+      </c>
+      <c r="T41">
+        <v>1.55308</v>
+      </c>
+      <c r="U41">
+        <v>2.43707</v>
+      </c>
+      <c r="V41">
+        <v>1.75</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>398.247</v>
+      </c>
+      <c r="AB41">
+        <v>28</v>
+      </c>
+      <c r="AC41">
+        <v>12.2269</v>
+      </c>
+      <c r="AD41">
+        <v>1.20873</v>
+      </c>
+      <c r="AE41">
+        <v>0.290166</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>8.974</v>
+      </c>
+      <c r="AI41">
+        <v>0.170276</v>
+      </c>
+      <c r="AJ41">
+        <v>0</v>
+      </c>
+      <c r="AK41">
+        <v>0</v>
+      </c>
+      <c r="AL41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" t="s">
+        <v>157</v>
+      </c>
+      <c r="E42">
+        <v>28.3808</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1.21421</v>
+      </c>
+      <c r="H42">
+        <v>319</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>2.43732</v>
+      </c>
+      <c r="K42" t="s">
+        <v>42</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>43</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>99.84</v>
+      </c>
+      <c r="R42">
+        <v>99.2</v>
+      </c>
+      <c r="S42" t="s">
+        <v>124</v>
+      </c>
+      <c r="T42">
+        <v>1.56094</v>
+      </c>
+      <c r="U42">
+        <v>2.43732</v>
+      </c>
+      <c r="V42">
+        <v>1.75</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+      <c r="AA42">
+        <v>0</v>
+      </c>
+      <c r="AB42">
+        <v>320</v>
+      </c>
+      <c r="AC42">
+        <v>168.533</v>
+      </c>
+      <c r="AD42">
+        <v>16.2463</v>
+      </c>
+      <c r="AE42">
+        <v>3.29307</v>
+      </c>
+      <c r="AF42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>90.571</v>
+      </c>
+      <c r="AI42">
+        <v>1.92742</v>
+      </c>
+      <c r="AJ42">
+        <v>1158.17</v>
+      </c>
+      <c r="AK42">
+        <v>206</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>160</v>
+      </c>
+      <c r="E43">
+        <v>9.0657</v>
+      </c>
+      <c r="F43">
+        <v>2.73309</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>96</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2.95572</v>
+      </c>
+      <c r="K43" t="s">
+        <v>42</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>43</v>
+      </c>
+      <c r="N43">
+        <v>70.8283</v>
+      </c>
+      <c r="O43">
+        <v>11.8034</v>
+      </c>
+      <c r="P43">
+        <v>100.011</v>
+      </c>
+      <c r="Q43">
+        <v>99.8</v>
+      </c>
+      <c r="R43">
+        <v>99.4</v>
+      </c>
+      <c r="S43" t="s">
+        <v>124</v>
+      </c>
+      <c r="T43">
+        <v>1.52748</v>
+      </c>
+      <c r="U43">
+        <v>2.95572</v>
+      </c>
+      <c r="V43">
+        <v>1.75</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>0</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>600.157</v>
+      </c>
+      <c r="AB43">
+        <v>98</v>
+      </c>
+      <c r="AC43">
+        <v>70.8283</v>
+      </c>
+      <c r="AD43">
+        <v>4.6463</v>
+      </c>
+      <c r="AE43">
+        <v>1.00775</v>
+      </c>
+      <c r="AF43">
+        <v>1200</v>
+      </c>
+      <c r="AH43">
+        <v>44.8385</v>
+      </c>
+      <c r="AI43">
+        <v>1.14547</v>
+      </c>
+      <c r="AJ43">
+        <v>1.42232</v>
+      </c>
+      <c r="AK43">
+        <v>1</v>
+      </c>
+      <c r="AL43">
+        <v>0.147644</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44">
+        <v>10.4743</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1.41329</v>
+      </c>
+      <c r="H44">
+        <v>105</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>3.3821</v>
+      </c>
+      <c r="K44" t="s">
+        <v>42</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>43</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>99.8</v>
+      </c>
+      <c r="R44">
+        <v>99.5</v>
+      </c>
+      <c r="S44" t="s">
+        <v>124</v>
+      </c>
+      <c r="T44">
+        <v>1.52902</v>
+      </c>
+      <c r="U44">
+        <v>3.3821</v>
+      </c>
+      <c r="V44">
+        <v>1.75</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+      <c r="AA44">
+        <v>0</v>
+      </c>
+      <c r="AB44">
+        <v>107</v>
+      </c>
+      <c r="AC44">
+        <v>78.1665</v>
+      </c>
+      <c r="AD44">
+        <v>5.5</v>
+      </c>
+      <c r="AE44">
+        <v>1.08883</v>
+      </c>
+      <c r="AF44">
+        <v>0</v>
+      </c>
+      <c r="AH44">
+        <v>56.7768</v>
+      </c>
+      <c r="AI44">
+        <v>1.04516</v>
+      </c>
+      <c r="AJ44">
+        <v>338.23</v>
+      </c>
+      <c r="AK44">
+        <v>139</v>
+      </c>
+      <c r="AL44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45">
+        <v>62.5158</v>
+      </c>
+      <c r="F45">
+        <v>5.47664</v>
+      </c>
+      <c r="G45">
+        <v>0.000182883</v>
+      </c>
+      <c r="H45">
+        <v>390</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3.78141</v>
+      </c>
+      <c r="K45" t="s">
+        <v>42</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>43</v>
+      </c>
+      <c r="N45">
+        <v>207.192</v>
+      </c>
+      <c r="O45">
+        <v>68.1609</v>
+      </c>
+      <c r="P45">
+        <v>50.6624</v>
+      </c>
+      <c r="Q45">
+        <v>100</v>
+      </c>
+      <c r="R45">
+        <v>100</v>
+      </c>
+      <c r="S45" t="s">
+        <v>124</v>
+      </c>
+      <c r="T45">
+        <v>1.8161</v>
+      </c>
+      <c r="U45">
+        <v>3.78141</v>
+      </c>
+      <c r="V45">
+        <v>1.75</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>0.142905</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>248.058</v>
+      </c>
+      <c r="AB45">
+        <v>995</v>
+      </c>
+      <c r="AC45">
+        <v>207.192</v>
+      </c>
+      <c r="AD45">
+        <v>32.884</v>
+      </c>
+      <c r="AE45">
+        <v>9.64611</v>
+      </c>
+      <c r="AF45">
+        <v>849.997</v>
+      </c>
+      <c r="AH45">
+        <v>172.777</v>
+      </c>
+      <c r="AI45">
+        <v>5.02199</v>
+      </c>
+      <c r="AJ45">
+        <v>2.45128</v>
+      </c>
+      <c r="AK45">
+        <v>2</v>
+      </c>
+      <c r="AL45">
+        <v>0.1756</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46">
+        <v>35.3313</v>
+      </c>
+      <c r="F46">
+        <v>11.4198</v>
+      </c>
+      <c r="G46">
+        <v>6.64123</v>
+      </c>
+      <c r="H46">
+        <v>258</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>1.86886</v>
+      </c>
+      <c r="K46" t="s">
+        <v>42</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>43</v>
+      </c>
+      <c r="N46">
+        <v>147.731</v>
+      </c>
+      <c r="O46">
+        <v>46.7557</v>
+      </c>
+      <c r="P46">
+        <v>52.6606</v>
+      </c>
+      <c r="Q46">
+        <v>100</v>
+      </c>
+      <c r="R46">
+        <v>100</v>
+      </c>
+      <c r="S46" t="s">
+        <v>44</v>
+      </c>
+      <c r="T46">
+        <v>1.8923</v>
+      </c>
+      <c r="U46">
+        <v>1.86886</v>
+      </c>
+      <c r="V46">
+        <v>1.75</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>0</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>324.791</v>
+      </c>
+      <c r="AB46">
+        <v>604</v>
+      </c>
+      <c r="AC46">
+        <v>147.731</v>
+      </c>
+      <c r="AD46">
+        <v>17.9074</v>
+      </c>
+      <c r="AE46">
+        <v>5.88831</v>
+      </c>
+      <c r="AF46">
+        <v>849.997</v>
+      </c>
+      <c r="AH46">
+        <v>77.7223</v>
+      </c>
+      <c r="AI46">
+        <v>2.16975</v>
+      </c>
+      <c r="AJ46">
+        <v>0.559654</v>
+      </c>
+      <c r="AK46">
+        <v>1</v>
+      </c>
+      <c r="AL46">
+        <v>0.0302051</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47" t="s">
+        <v>172</v>
+      </c>
+      <c r="E47">
+        <v>55.4216</v>
+      </c>
+      <c r="F47">
+        <v>8.96938</v>
+      </c>
+      <c r="G47">
+        <v>7.38745</v>
+      </c>
+      <c r="H47">
+        <v>343</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>12.0061</v>
+      </c>
+      <c r="K47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>43</v>
+      </c>
+      <c r="N47">
+        <v>299.1</v>
+      </c>
+      <c r="O47">
+        <v>66.0079</v>
+      </c>
+      <c r="P47">
+        <v>75.5212</v>
+      </c>
+      <c r="Q47">
+        <v>100</v>
+      </c>
+      <c r="R47">
+        <v>100</v>
+      </c>
+      <c r="S47" t="s">
+        <v>44</v>
+      </c>
+      <c r="T47">
+        <v>1.524</v>
+      </c>
+      <c r="U47">
+        <v>12.0061</v>
+      </c>
+      <c r="V47">
+        <v>1.75</v>
+      </c>
+      <c r="W47">
+        <v>1.56992</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>4</v>
+      </c>
+      <c r="AA47">
+        <v>303.523</v>
+      </c>
+      <c r="AB47">
+        <v>354</v>
+      </c>
+      <c r="AC47">
+        <v>299.1</v>
+      </c>
+      <c r="AD47">
+        <v>38.7962</v>
+      </c>
+      <c r="AE47">
+        <v>3.43706</v>
+      </c>
+      <c r="AF47">
+        <v>849.997</v>
+      </c>
+      <c r="AH47">
+        <v>119.294</v>
+      </c>
+      <c r="AI47">
+        <v>2.17722</v>
+      </c>
+      <c r="AJ47">
+        <v>11.3408</v>
+      </c>
+      <c r="AK47">
+        <v>10</v>
+      </c>
+      <c r="AL47">
+        <v>1.01148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D48" t="s">
+        <v>175</v>
+      </c>
+      <c r="E48">
+        <v>31.3455</v>
+      </c>
+      <c r="F48">
+        <v>5.3069</v>
+      </c>
+      <c r="G48">
+        <v>9.59258</v>
+      </c>
+      <c r="H48">
+        <v>216</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>5.36239</v>
+      </c>
+      <c r="K48" t="s">
+        <v>42</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>43</v>
+      </c>
+      <c r="N48">
+        <v>162.69</v>
+      </c>
+      <c r="O48">
+        <v>36.6692</v>
+      </c>
+      <c r="P48">
+        <v>73.9451</v>
+      </c>
+      <c r="Q48">
+        <v>99.6</v>
+      </c>
+      <c r="R48">
+        <v>99.4</v>
+      </c>
+      <c r="S48" t="s">
+        <v>44</v>
+      </c>
+      <c r="T48">
+        <v>1.51486</v>
+      </c>
+      <c r="U48">
+        <v>5.36239</v>
+      </c>
+      <c r="V48">
+        <v>1.75</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+      <c r="AA48">
+        <v>295.733</v>
+      </c>
+      <c r="AB48">
+        <v>220</v>
+      </c>
+      <c r="AC48">
+        <v>162.69</v>
+      </c>
+      <c r="AD48">
+        <v>21.6585</v>
+      </c>
+      <c r="AE48">
+        <v>2.12557</v>
+      </c>
+      <c r="AF48">
+        <v>849.997</v>
+      </c>
+      <c r="AH48">
+        <v>104.177</v>
+      </c>
+      <c r="AI48">
+        <v>1.4798</v>
+      </c>
+      <c r="AJ48">
+        <v>4.07082</v>
+      </c>
+      <c r="AK48">
+        <v>3</v>
+      </c>
+      <c r="AL48">
+        <v>0.428348</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" t="s">
+        <v>176</v>
+      </c>
+      <c r="C49" t="s">
+        <v>177</v>
+      </c>
+      <c r="D49" t="s">
+        <v>178</v>
+      </c>
+      <c r="E49">
+        <v>29.4107</v>
+      </c>
+      <c r="F49">
+        <v>3.07516</v>
+      </c>
+      <c r="G49">
+        <v>6.39695</v>
+      </c>
+      <c r="H49">
+        <v>168</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2.37567</v>
+      </c>
+      <c r="K49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>43</v>
+      </c>
+      <c r="N49">
+        <v>103.851</v>
+      </c>
+      <c r="O49">
+        <v>32.5505</v>
+      </c>
+      <c r="P49">
+        <v>53.1742</v>
+      </c>
+      <c r="Q49">
+        <v>100</v>
+      </c>
+      <c r="R49">
+        <v>100</v>
+      </c>
+      <c r="S49" t="s">
+        <v>44</v>
+      </c>
+      <c r="T49">
+        <v>1.4986</v>
+      </c>
+      <c r="U49">
+        <v>2.37567</v>
+      </c>
+      <c r="V49">
+        <v>1.75</v>
+      </c>
+      <c r="W49">
+        <v>0.0611528</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>1</v>
+      </c>
+      <c r="AA49">
+        <v>219.902</v>
+      </c>
+      <c r="AB49">
+        <v>338</v>
+      </c>
+      <c r="AC49">
+        <v>103.851</v>
+      </c>
+      <c r="AD49">
+        <v>18.5929</v>
+      </c>
+      <c r="AE49">
+        <v>3.27956</v>
+      </c>
+      <c r="AF49">
+        <v>849.997</v>
+      </c>
+      <c r="AH49">
+        <v>75.7691</v>
+      </c>
+      <c r="AI49">
+        <v>1.81702</v>
+      </c>
+      <c r="AJ49">
+        <v>0.328149</v>
+      </c>
+      <c r="AK49">
+        <v>1</v>
+      </c>
+      <c r="AL49">
+        <v>0.0494598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" t="s">
+        <v>179</v>
+      </c>
+      <c r="C50" t="s">
+        <v>180</v>
+      </c>
+      <c r="D50" t="s">
+        <v>181</v>
+      </c>
+      <c r="E50">
+        <v>17.5439</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>8.76635</v>
+      </c>
+      <c r="H50">
+        <v>120</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0.937846</v>
+      </c>
+      <c r="K50" t="s">
+        <v>42</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>43</v>
+      </c>
+      <c r="N50">
+        <v>69.4122</v>
+      </c>
+      <c r="O50">
+        <v>17.546</v>
+      </c>
+      <c r="P50">
+        <v>65.9334</v>
+      </c>
+      <c r="Q50">
+        <v>100</v>
+      </c>
+      <c r="R50">
+        <v>100</v>
+      </c>
+      <c r="S50" t="s">
+        <v>44</v>
+      </c>
+      <c r="T50">
+        <v>1.8796</v>
+      </c>
+      <c r="U50">
+        <v>0.937846</v>
+      </c>
+      <c r="V50">
+        <v>1.75</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+      <c r="AA50">
+        <v>285.707</v>
+      </c>
+      <c r="AB50">
+        <v>281</v>
+      </c>
+      <c r="AC50">
+        <v>69.4122</v>
+      </c>
+      <c r="AD50">
+        <v>9.5649</v>
+      </c>
+      <c r="AE50">
+        <v>2.73768</v>
+      </c>
+      <c r="AF50">
+        <v>849.997</v>
+      </c>
+      <c r="AH50">
+        <v>40.1957</v>
+      </c>
+      <c r="AI50">
+        <v>1.07074</v>
+      </c>
+      <c r="AJ50">
+        <v>0</v>
+      </c>
+      <c r="AK50">
+        <v>0</v>
+      </c>
+      <c r="AL50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+      <c r="C51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51">
+        <v>15.9234</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>5.16616</v>
+      </c>
+      <c r="H51">
+        <v>108</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0.903581</v>
+      </c>
+      <c r="K51" t="s">
+        <v>42</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51">
+        <v>64.2389</v>
+      </c>
+      <c r="O51">
+        <v>15.9253</v>
+      </c>
+      <c r="P51">
+        <v>67.2294</v>
+      </c>
+      <c r="Q51">
+        <v>100</v>
+      </c>
+      <c r="R51">
+        <v>100</v>
+      </c>
+      <c r="S51" t="s">
+        <v>44</v>
+      </c>
+      <c r="T51">
+        <v>1.8923</v>
+      </c>
+      <c r="U51">
+        <v>3.30819</v>
+      </c>
+      <c r="V51">
+        <v>1.75</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>291.319</v>
+      </c>
+      <c r="AB51">
+        <v>253</v>
+      </c>
+      <c r="AC51">
+        <v>64.2389</v>
+      </c>
+      <c r="AD51">
+        <v>8.6815</v>
+      </c>
+      <c r="AE51">
+        <v>2.4648</v>
+      </c>
+      <c r="AF51">
+        <v>849.997</v>
+      </c>
+      <c r="AH51">
+        <v>37.6024</v>
+      </c>
+      <c r="AI51">
+        <v>0.997619</v>
+      </c>
+      <c r="AJ51">
+        <v>0</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
+        <v>187</v>
+      </c>
+      <c r="E52">
+        <v>10.9234</v>
+      </c>
+      <c r="F52">
+        <v>0.823416</v>
+      </c>
+      <c r="G52">
+        <v>8.38213</v>
+      </c>
+      <c r="H52">
+        <v>84</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0.69553</v>
+      </c>
+      <c r="K52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52">
+        <v>46.3152</v>
+      </c>
+      <c r="O52">
+        <v>11.7495</v>
+      </c>
+      <c r="P52">
+        <v>65.6979</v>
+      </c>
+      <c r="Q52">
+        <v>100</v>
+      </c>
+      <c r="R52">
+        <v>98.7</v>
+      </c>
+      <c r="S52" t="s">
+        <v>44</v>
+      </c>
+      <c r="T52">
+        <v>1.57815</v>
+      </c>
+      <c r="U52">
+        <v>0.69553</v>
+      </c>
+      <c r="V52">
+        <v>1.75</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+      <c r="AA52">
+        <v>246.312</v>
+      </c>
+      <c r="AB52">
+        <v>93</v>
+      </c>
+      <c r="AC52">
+        <v>46.3152</v>
+      </c>
+      <c r="AD52">
+        <v>7.40291</v>
+      </c>
+      <c r="AE52">
+        <v>0.905848</v>
+      </c>
+      <c r="AF52">
+        <v>338.228</v>
+      </c>
+      <c r="AH52">
+        <v>30.7037</v>
+      </c>
+      <c r="AI52">
+        <v>0.531693</v>
+      </c>
+      <c r="AJ52">
+        <v>0</v>
+      </c>
+      <c r="AK52">
+        <v>0</v>
+      </c>
+      <c r="AL52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" t="s">
+        <v>190</v>
+      </c>
+      <c r="E53">
+        <v>16.0682</v>
+      </c>
+      <c r="F53">
+        <v>0.587592</v>
+      </c>
+      <c r="G53">
+        <v>4.92307</v>
+      </c>
+      <c r="H53">
+        <v>116</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1.35075</v>
+      </c>
+      <c r="K53" t="s">
+        <v>42</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53">
+        <v>70.8109</v>
+      </c>
+      <c r="O53">
+        <v>16.6599</v>
+      </c>
+      <c r="P53">
+        <v>70.8396</v>
+      </c>
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <v>98.7</v>
+      </c>
+      <c r="S53" t="s">
+        <v>44</v>
+      </c>
+      <c r="T53">
+        <v>1.57815</v>
+      </c>
+      <c r="U53">
+        <v>1.35075</v>
+      </c>
+      <c r="V53">
+        <v>1.75</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+      <c r="AA53">
+        <v>249.019</v>
+      </c>
+      <c r="AB53">
+        <v>117</v>
+      </c>
+      <c r="AC53">
+        <v>70.8109</v>
+      </c>
+      <c r="AD53">
+        <v>11.1952</v>
+      </c>
+      <c r="AE53">
+        <v>1.13534</v>
+      </c>
+      <c r="AF53">
+        <v>338.228</v>
+      </c>
+      <c r="AH53">
+        <v>46.0703</v>
+      </c>
+      <c r="AI53">
+        <v>0.503763</v>
+      </c>
+      <c r="AJ53">
+        <v>0</v>
+      </c>
+      <c r="AK53">
+        <v>0</v>
+      </c>
+      <c r="AL53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" t="s">
+        <v>192</v>
+      </c>
+      <c r="D54" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54">
+        <v>31.7325</v>
+      </c>
+      <c r="F54">
+        <v>3.165</v>
+      </c>
+      <c r="G54">
+        <v>9.34424</v>
+      </c>
+      <c r="H54">
+        <v>180</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>1.84879</v>
+      </c>
+      <c r="K54" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54">
+        <v>98.579</v>
+      </c>
+      <c r="O54">
+        <v>34.9062</v>
+      </c>
+      <c r="P54">
+        <v>47.0684</v>
+      </c>
+      <c r="Q54">
+        <v>100</v>
+      </c>
+      <c r="R54">
+        <v>100</v>
+      </c>
+      <c r="S54" t="s">
+        <v>44</v>
+      </c>
+      <c r="T54">
+        <v>1.8161</v>
+      </c>
+      <c r="U54">
+        <v>1.84879</v>
+      </c>
+      <c r="V54">
+        <v>1.75</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+      <c r="AA54">
+        <v>215.941</v>
+      </c>
+      <c r="AB54">
+        <v>434</v>
+      </c>
+      <c r="AC54">
+        <v>98.5789</v>
+      </c>
+      <c r="AD54">
+        <v>17.9727</v>
+      </c>
+      <c r="AE54">
+        <v>4.23039</v>
+      </c>
+      <c r="AF54">
+        <v>849.997</v>
+      </c>
+      <c r="AH54">
+        <v>87.72</v>
+      </c>
+      <c r="AI54">
+        <v>2.07598</v>
+      </c>
+      <c r="AJ54">
+        <v>1.39121</v>
+      </c>
+      <c r="AK54">
+        <v>1</v>
+      </c>
+      <c r="AL54">
+        <v>0.128375</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55" t="s">
+        <v>195</v>
+      </c>
+      <c r="D55" t="s">
+        <v>196</v>
+      </c>
+      <c r="E55">
+        <v>68.7626</v>
+      </c>
+      <c r="F55">
+        <v>12.5584</v>
+      </c>
+      <c r="G55">
+        <v>6.39465</v>
+      </c>
+      <c r="H55">
+        <v>432</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>10.7678</v>
+      </c>
+      <c r="K55" t="s">
+        <v>42</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55">
+        <v>327.09</v>
+      </c>
+      <c r="O55">
+        <v>81.4269</v>
+      </c>
+      <c r="P55">
+        <v>66.9495</v>
+      </c>
+      <c r="Q55">
+        <v>100</v>
+      </c>
+      <c r="R55">
+        <v>100</v>
+      </c>
+      <c r="S55" t="s">
+        <v>44</v>
+      </c>
+      <c r="T55">
+        <v>1.524</v>
+      </c>
+      <c r="U55">
+        <v>10.7678</v>
+      </c>
+      <c r="V55">
+        <v>1.75</v>
+      </c>
+      <c r="W55">
+        <v>0.0859072</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>1</v>
+      </c>
+      <c r="AA55">
+        <v>268.649</v>
+      </c>
+      <c r="AB55">
+        <v>440</v>
+      </c>
+      <c r="AC55">
+        <v>327.09</v>
+      </c>
+      <c r="AD55">
+        <v>47.9344</v>
+      </c>
+      <c r="AE55">
+        <v>4.38856</v>
+      </c>
+      <c r="AF55">
+        <v>849.997</v>
+      </c>
+      <c r="AH55">
+        <v>244.151</v>
+      </c>
+      <c r="AI55">
+        <v>3.95486</v>
+      </c>
+      <c r="AJ55">
+        <v>9.40014</v>
+      </c>
+      <c r="AK55">
+        <v>7</v>
+      </c>
+      <c r="AL55">
+        <v>0.945094</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
@@ -703,20 +7282,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC1"/>
+  <dimension ref="A1:AB1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="29" width="30" customWidth="1"/>
+    <col min="3" max="28" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -725,79 +7304,76 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>198</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="L1" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="M1" t="s">
-        <v>47</v>
+        <v>206</v>
       </c>
       <c r="N1" t="s">
-        <v>48</v>
+        <v>207</v>
       </c>
       <c r="O1" t="s">
-        <v>49</v>
+        <v>208</v>
       </c>
       <c r="P1" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="Q1" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="R1" t="s">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
         <v>14</v>
       </c>
       <c r="T1" t="s">
-        <v>53</v>
+        <v>212</v>
       </c>
       <c r="U1" t="s">
-        <v>54</v>
+        <v>213</v>
       </c>
       <c r="V1" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="W1" t="s">
-        <v>56</v>
+        <v>215</v>
       </c>
       <c r="X1" t="s">
-        <v>57</v>
+        <v>216</v>
       </c>
       <c r="Y1" t="s">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="Z1" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="AA1" t="s">
-        <v>60</v>
+        <v>219</v>
       </c>
       <c r="AB1" t="s">
         <v>12</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
